--- a/src/main/resources/ExportTemplate/KeHoachVanTaiNoiDiaTemplate.xlsx
+++ b/src/main/resources/ExportTemplate/KeHoachVanTaiNoiDiaTemplate.xlsx
@@ -381,6 +381,15 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -425,15 +434,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -718,7 +718,7 @@
   <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -740,31 +740,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="25.5">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:19" ht="25.5">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="13" t="s">
         <v>18</v>
       </c>
@@ -802,66 +802,66 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16" t="s">
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="20" t="s">
+      <c r="N4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="16" t="s">
+      <c r="O4" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="P4" s="27" t="s">
+      <c r="P4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="16" t="s">
+      <c r="Q4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="23" t="s">
+      <c r="R4" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="S4" s="25" t="s">
+      <c r="S4" s="28" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
       <c r="F5" s="7" t="s">
         <v>13</v>
       </c>
@@ -871,30 +871,30 @@
       <c r="H5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="26"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="29"/>
     </row>
     <row r="6" spans="1:19" s="9" customFormat="1" ht="30">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -912,7 +912,7 @@
       <c r="J6" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="29" t="s">
+      <c r="K6" s="14" t="s">
         <v>37</v>
       </c>
       <c r="L6" s="11"/>

--- a/src/main/resources/ExportTemplate/KeHoachVanTaiNoiDiaTemplate.xlsx
+++ b/src/main/resources/ExportTemplate/KeHoachVanTaiNoiDiaTemplate.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Working\Projects\GitHub\ael\src\main\resources\ExportTemplate\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
@@ -151,7 +146,7 @@
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="#,##0.00;[Red]#,##0.00"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,46 +155,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
-      <name val="VNI-Times"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -344,97 +328,85 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,7 +467,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -530,7 +502,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -707,7 +679,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -718,250 +690,245 @@
   <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="26.7109375" customWidth="1"/>
-    <col min="10" max="11" width="18.140625" customWidth="1"/>
-    <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" customWidth="1"/>
-    <col min="14" max="14" width="17.28515625" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" customWidth="1"/>
-    <col min="17" max="17" width="18" customWidth="1"/>
-    <col min="18" max="18" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="3" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="3"/>
+    <col min="9" max="9" width="26.7109375" style="3" customWidth="1"/>
+    <col min="10" max="11" width="18.140625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="16" style="3" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="18" style="3" customWidth="1"/>
+    <col min="18" max="18" width="17.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="25.5">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="4"/>
     </row>
-    <row r="2" spans="1:19" ht="25.5">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="1"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="4"/>
     </row>
-    <row r="3" spans="1:19" ht="26.25" thickBot="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="1"/>
+    <row r="3" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="4"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19" t="s">
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="23" t="s">
+      <c r="N4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="O4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="P4" s="30" t="s">
+      <c r="P4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="19" t="s">
+      <c r="Q4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="26" t="s">
+      <c r="R4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="S4" s="28" t="s">
+      <c r="S4" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="7" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="29"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="19"/>
     </row>
-    <row r="6" spans="1:19" s="9" customFormat="1" ht="30">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:19" s="26" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="16" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="11"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2" t="s">
+      <c r="L6" s="24"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="P6" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="Q6" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="R6" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="S6" s="2"/>
+      <c r="S6" s="23"/>
     </row>
-    <row r="7" spans="1:19" s="12" customFormat="1" ht="15.75">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
+    <row r="7" spans="1:19" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -974,6 +941,13 @@
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
